--- a/webterview_be/src/main/resources/example/자기소개서.xlsx
+++ b/webterview_be/src/main/resources/example/자기소개서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcd_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D84801-261E-4146-9159-45BAE6769863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3B9320-7BE4-4D99-95C4-CF52ED645775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{803D3E4D-0D54-4A85-A3D3-594F54EE65E9}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{803D3E4D-0D54-4A85-A3D3-594F54EE65E9}"/>
   </bookViews>
   <sheets>
     <sheet name="자기소개서" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,36 +57,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>질문2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>답변1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문4</t>
-  </si>
-  <si>
-    <t>질문5</t>
-  </si>
-  <si>
-    <t>답변4</t>
-  </si>
-  <si>
-    <t>답변5</t>
   </si>
   <si>
     <t>답변6</t>
@@ -497,24 +469,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4637BFAB-8583-4801-B51C-D64455099C6B}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="30.125" customWidth="1"/>
+    <col min="4" max="4" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,22 +493,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -548,80 +504,11 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
